--- a/ames_cities.xlsx
+++ b/ames_cities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andycho/Documents/Junior folder/AMES 178/shinyApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andycho/Documents/Junior folder/AMES 178/ICS-final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,9 +125,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>https://cdn.images.dailystar.co.uk/dynamic/1/photos/657000/620x/Big-Ben-London-UK-653548.jpg</t>
-  </si>
-  <si>
     <t>Toronto</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>Capital of Laos. There is a South Korean embassy in Vientiane, but North Koreans can get easily sent back to North Korea when caught by Lao officials. ; Southeast Asia used to be the safe haven for many North Korean defectors. Since 2013, Laos has taken actions against the North Korean defectors and sending back to Pyongyang on commercial flights. Laos government stated that nine young North Korean defectors in May 2013 “were victims of ‘human trafficking’, but this statement is considered to be false and resulted from the unofficial bribe and agreements between Laos and North Korea. South Korea has not received any updates from the Laos government except for to wait until the next update. ; In Laos, North Korean defectors continue to “encounter fines, shakedowns, corruption, and plenty of waiting before getting getting handed over to the South Koreans” but “it’s likely the most comfortable place [they have] ever been”. Some also criticize that South Korean government underestimated the friendly relationship between Laos and North Korea in recent years. However, the key for these defectors is having enough money in Laos to bribe the officials, just the way they bribed North Korean guards at Yalu and Tumen River, but for less money. Thailand continues to be the ultimate safe haven for North Korean refugees because they can turn themselves to any Thai officials whereas Lao officials would report them as illegal migrants unless they are paid satisfactory bribes.</t>
-  </si>
-  <si>
-    <t>http://static.asiawebdirect.com/m/bangkok/portals/laos/homepage/hotels/vientiane/pagePropertiesImage/Vientiane%20Hotels.jpg</t>
   </si>
   <si>
     <t>https://www.insauga.com/sites/default/files/imagecache/lead-image-full/article/2017/08/header_photo_1.jpg</t>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t xml:space="preserve">Chinese border city - across the Yalu River is Sinuiju, North Korea. There are many border cities like Dandong that end up becoming homes to North Korean refugees. This refugee presence in turn causes many Christian missionaries to be in the area. ; As North Korean defectors escape North Korea, seeking refuge in China, many of them end up in border cities, such as Dan Dong. The high concentration of North Korean refugees has led the city to become a hub for Christian missionaries who hope to introduce the North Korean refugees to the religion, which was strictly banned in North Korea. Unfortunately,  in “Beyond Safe Haven,” Ju Hui Judy Han reveals that South Korean and Christian missionaries judge North Korean defectors in the Christian shelters in China with severe prejudice. Rather than accepting that the defectors faced brutal lives before they escaped and consoling their difficulties, the missionaries view the defectors as “contaminated” and “morally deficient.” This harsh perception stems from the fact that North Koreans often had to lie and steal to survive in their mother country. For instance, Yeonmi Park’s father created a smuggling business to provide for his family. In the eyes of the missionaries, this behavior corrupts and consequently, the North Korean defectors are forced into adopting Christianity as a way of “improving” them.  ; The missionaries’ immediate assumption of the North Korean defector’s inferiority and the desire to adjust their lifestyles will lead to severe psychological damage and the loss of the North Korean defector’s personal identities. This is particularly troubling considering the defectors spent most of their lives withstanding the brainwashing of the North Korean government. Jin Heon Jung’s interviews with North Korean defectors who experienced missionary treatment reveals that this erosion of identity is already occurring. In an interview with a young refugee, Grace, Grace states that she would like to be a missionary, because  Ms. Yang, her Christian host, forced all of her hostess to only read the Bible and scolds them for considering non-Christian sentiments. </t>
+  </si>
+  <si>
+    <t>http://static.asiawebdirect.com/m/bangkok/portals/laos/shared/teasersL/vientiane/vientiane-nightlife/teaserMultiLarge/imageHilight/teaser.jpeg.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.londonandpartners.com/assets/73295-640x360-london-skyline-ns.jpg</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -860,18 +860,18 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
       </c>
       <c r="C11">
         <v>4670783</v>
@@ -886,18 +886,18 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
       </c>
       <c r="C12">
         <v>10000</v>
@@ -912,18 +912,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
       </c>
       <c r="C13">
         <v>10546511</v>
@@ -938,18 +938,18 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
       </c>
       <c r="C14">
         <v>862842</v>
@@ -964,15 +964,15 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -990,15 +990,15 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1016,15 +1016,15 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1042,18 +1042,18 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="3">
         <v>783000</v>
@@ -1068,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1081,9 +1081,6 @@
       <c r="G20" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>